--- a/z-test.xlsx
+++ b/z-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC4F25BE-98B1-449E-B4B7-0E32A7A78612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D704723-6208-4781-BE44-455BC602EB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{57D3D8A3-0B05-4F64-B007-78DDB0B452CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Z-test</t>
   </si>
@@ -50,17 +50,56 @@
     <t>Z-test is used to compare the mean of the two given sample and infer whether they are from the same distribuition or not.</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>We do not perform z test where sample size is less than 30.</t>
+  </si>
+  <si>
+    <t>var1(f)</t>
+  </si>
+  <si>
+    <t>var2(m)</t>
+  </si>
+  <si>
+    <t>H0: There is not significant difference between male's and female age.</t>
+  </si>
+  <si>
+    <t>H1: There is significant difference bw male's and female's age.</t>
+  </si>
+  <si>
+    <t>z-Test: Two Sample for Means</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Known Variance</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>P(Z&lt;=z) one-tail</t>
+  </si>
+  <si>
+    <t>z Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(Z&lt;=z) two-tail</t>
+  </si>
+  <si>
+    <t>z Critical two-tail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,8 +122,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,8 +150,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -106,15 +189,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,13 +573,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B76F7E2-5427-403E-8F24-2BAFE4016755}">
-  <dimension ref="B4:U16"/>
+  <dimension ref="B4:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="96" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="25.7265625" customWidth="1"/>
+    <col min="9" max="9" width="7.54296875" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="2:21" ht="21" x14ac:dyDescent="0.5">
       <c r="B4" s="1" t="s">
@@ -492,9 +610,15 @@
       <c r="U4" s="3"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
+      <c r="F5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
@@ -503,6 +627,12 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
+      <c r="F6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B7">
@@ -511,6 +641,14 @@
       <c r="C7">
         <v>23</v>
       </c>
+      <c r="F7" s="5">
+        <f>_xlfn.VAR.S(Table1[Age_F])</f>
+        <v>9.9555555555555966</v>
+      </c>
+      <c r="G7" s="5">
+        <f>_xlfn.VAR.S(Table1[Age_M])</f>
+        <v>14.322222222222182</v>
+      </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B8">
@@ -527,6 +665,15 @@
       <c r="C9">
         <v>23</v>
       </c>
+      <c r="F9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="M9" s="11"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B10">
@@ -535,9 +682,15 @@
       <c r="C10">
         <v>22</v>
       </c>
-      <c r="H10" t="s">
-        <v>4</v>
-      </c>
+      <c r="F10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B11">
@@ -562,8 +715,11 @@
       <c r="C13">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>32</v>
       </c>
@@ -578,6 +734,13 @@
       <c r="C15">
         <v>28</v>
       </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B16">
@@ -586,8 +749,94 @@
       <c r="C16">
         <v>29</v>
       </c>
+      <c r="F16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="7">
+        <v>28.2</v>
+      </c>
+      <c r="H16" s="7">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="H17" s="7">
+        <v>14.32</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="7">
+        <v>10</v>
+      </c>
+      <c r="H18" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1.4763623041346035</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="7">
+        <v>6.9923328297872622E-2</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1.6448536269514715</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.13984665659574524</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="6:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1.9599639845400536</v>
+      </c>
+      <c r="H24" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
